--- a/biology/Botanique/Acanthostachys_pitcairnioides/Acanthostachys_pitcairnioides.xlsx
+++ b/biology/Botanique/Acanthostachys_pitcairnioides/Acanthostachys_pitcairnioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthostachys pitcairnioides est une espèce de plantes à fleurs de la famille des Bromeliaceae, endémique du nord-est du Brésil. C'est une plante épiphyte qui vit dans la canopée d'autres arbres, dans le biome forêt atlantique, dans les états de Bahia, Minas Gerais et Espírito Santo. On la trouve aussi au Paraguay[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthostachys pitcairnioides est une espèce de plantes à fleurs de la famille des Bromeliaceae, endémique du nord-est du Brésil. C'est une plante épiphyte qui vit dans la canopée d'autres arbres, dans le biome forêt atlantique, dans les états de Bahia, Minas Gerais et Espírito Santo. On la trouve aussi au Paraguay.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Aechmea pitcairnioides Mez[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Aechmea pitcairnioides Mez.</t>
         </is>
       </c>
     </row>
